--- a/election_data.xlsx
+++ b/election_data.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Return_1M</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Return_3M</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Return_6M</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Return_9M</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Return_12M</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Return_2M</t>
         </is>
       </c>
     </row>
@@ -501,16 +511,22 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
+        <v>2.214869956805443</v>
+      </c>
+      <c r="G2" t="n">
         <v>10.94817696643224</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>26.99971453040251</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>30.63957244376578</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>37.75933609958506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.470090240952661</v>
       </c>
     </row>
     <row r="3">
@@ -530,16 +546,22 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
+        <v>1.415022761760221</v>
+      </c>
+      <c r="G3" t="n">
         <v>-10.8127043437646</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>-13.68376868683607</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-20.13801756587202</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-17.16091847169285</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.078668189978778</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +581,22 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
+        <v>3.300850947021683</v>
+      </c>
+      <c r="G4" t="n">
         <v>7.717628537693644</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13.02323835266734</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>18.93963337547408</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11.0676602966133</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.445568009051383</v>
       </c>
     </row>
     <row r="5">
@@ -588,16 +616,22 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
+        <v>-4.923347329362359</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3359370169617293</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-0.6448979591836768</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1.513824596521962</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>14.48593735302417</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.3479756007696455</v>
       </c>
     </row>
     <row r="6">
@@ -617,16 +651,22 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
+        <v>-8.189655172413801</v>
+      </c>
+      <c r="G6" t="n">
         <v>-19.13888888888889</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>-22.24373956594324</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-22.62266031675712</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-16.1839863713799</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-19.23423735867379</v>
       </c>
     </row>
     <row r="7">
@@ -646,16 +686,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
+        <v>-2.490623899214695</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.451383851040912</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>26.42282429110641</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>22.21053588355213</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>26.38547583558257</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2.762625010331432</v>
       </c>
     </row>
     <row r="8">
@@ -675,16 +721,22 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
+        <v>-2.762348145780058</v>
+      </c>
+      <c r="G8" t="n">
         <v>-2.144494490468918</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.777539750034987</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-1.94041730054304</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-1.571522475602982</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-4.845190493415597</v>
       </c>
     </row>
     <row r="9">
@@ -704,16 +756,22 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
+        <v>7.888065714229575</v>
+      </c>
+      <c r="G9" t="n">
         <v>-8.759382876769251</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>-7.804304626493885</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-2.485479659682299</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-11.06605398575571</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3588968643747581</v>
       </c>
     </row>
   </sheetData>

--- a/election_data.xlsx
+++ b/election_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,32 +465,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Return_1M</t>
+          <t>Return_3M</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Return_3M</t>
+          <t>Return_6M</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Return_6M</t>
+          <t>Return_9M</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Return_9M</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Return_12M</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Return_2M</t>
         </is>
       </c>
     </row>
@@ -511,22 +501,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>2.214869956805443</v>
+        <v>10.94817696643224</v>
       </c>
       <c r="G2" t="n">
-        <v>10.94817696643224</v>
+        <v>26.99971453040251</v>
       </c>
       <c r="H2" t="n">
-        <v>26.99971453040251</v>
+        <v>30.63957244376578</v>
       </c>
       <c r="I2" t="n">
-        <v>30.63957244376578</v>
-      </c>
-      <c r="J2" t="n">
         <v>37.75933609958506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.470090240952661</v>
       </c>
     </row>
     <row r="3">
@@ -546,22 +530,16 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1.415022761760221</v>
+        <v>-10.8127043437646</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.8127043437646</v>
+        <v>-13.68376868683607</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.68376868683607</v>
+        <v>-20.13801756587202</v>
       </c>
       <c r="I3" t="n">
-        <v>-20.13801756587202</v>
-      </c>
-      <c r="J3" t="n">
         <v>-17.16091847169285</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.078668189978778</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +559,16 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>3.300850947021683</v>
+        <v>7.717628537693644</v>
       </c>
       <c r="G4" t="n">
-        <v>7.717628537693644</v>
+        <v>13.02323835266734</v>
       </c>
       <c r="H4" t="n">
-        <v>13.02323835266734</v>
+        <v>18.93963337547408</v>
       </c>
       <c r="I4" t="n">
-        <v>18.93963337547408</v>
-      </c>
-      <c r="J4" t="n">
         <v>11.0676602966133</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.445568009051383</v>
       </c>
     </row>
     <row r="5">
@@ -616,22 +588,16 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-4.923347329362359</v>
+        <v>0.3359370169617293</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3359370169617293</v>
+        <v>-0.6448979591836768</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6448979591836768</v>
+        <v>1.513824596521962</v>
       </c>
       <c r="I5" t="n">
-        <v>1.513824596521962</v>
-      </c>
-      <c r="J5" t="n">
         <v>14.48593735302417</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-0.3479756007696455</v>
       </c>
     </row>
     <row r="6">
@@ -651,22 +617,16 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-8.189655172413801</v>
+        <v>-19.13888888888889</v>
       </c>
       <c r="G6" t="n">
-        <v>-19.13888888888889</v>
+        <v>-22.24373956594324</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.24373956594324</v>
+        <v>-22.62266031675712</v>
       </c>
       <c r="I6" t="n">
-        <v>-22.62266031675712</v>
-      </c>
-      <c r="J6" t="n">
         <v>-16.1839863713799</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-19.23423735867379</v>
       </c>
     </row>
     <row r="7">
@@ -686,22 +646,16 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-2.490623899214695</v>
+        <v>3.451383851040912</v>
       </c>
       <c r="G7" t="n">
-        <v>3.451383851040912</v>
+        <v>26.42282429110641</v>
       </c>
       <c r="H7" t="n">
-        <v>26.42282429110641</v>
+        <v>22.21053588355213</v>
       </c>
       <c r="I7" t="n">
-        <v>22.21053588355213</v>
-      </c>
-      <c r="J7" t="n">
         <v>26.38547583558257</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-2.762625010331432</v>
       </c>
     </row>
     <row r="8">
@@ -721,22 +675,16 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-2.762348145780058</v>
+        <v>-2.144494490468918</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.144494490468918</v>
+        <v>4.777539750034987</v>
       </c>
       <c r="H8" t="n">
-        <v>4.777539750034987</v>
+        <v>-1.94041730054304</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.94041730054304</v>
-      </c>
-      <c r="J8" t="n">
         <v>-1.571522475602982</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-4.845190493415597</v>
       </c>
     </row>
     <row r="9">
@@ -756,22 +704,16 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>7.888065714229575</v>
+        <v>-8.759382876769251</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.759382876769251</v>
+        <v>-7.804304626493885</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.804304626493885</v>
+        <v>-2.485479659682299</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.485479659682299</v>
-      </c>
-      <c r="J9" t="n">
         <v>-11.06605398575571</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3588968643747581</v>
       </c>
     </row>
   </sheetData>

--- a/election_data.xlsx
+++ b/election_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,40 +486,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35865</v>
-      </c>
-      <c r="B2" t="n">
-        <v>222.44</v>
-      </c>
+        <v>31851</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rød</t>
+          <t>Blå</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>10.94817696643224</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26.99971453040251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30.63957244376578</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37.75933609958506</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>37215</v>
-      </c>
-      <c r="B3" t="n">
-        <v>267.33</v>
-      </c>
+        <v>33314</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="b">
         <v>1</v>
       </c>
@@ -529,83 +517,55 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>-10.8127043437646</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-13.68376868683607</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-20.13801756587202</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-17.16091847169285</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>38391</v>
-      </c>
-      <c r="B4" t="n">
-        <v>301.06</v>
-      </c>
+        <v>34777</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Blå</t>
+          <t>Rød</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>7.717628537693644</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.02323835266734</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.93963337547408</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.0676602966133</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>39399</v>
-      </c>
-      <c r="B5" t="n">
-        <v>486.84</v>
-      </c>
+        <v>36240</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Blå</t>
+          <t>Rød</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.3359370169617293</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.6448979591836768</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.513824596521962</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.48593735302417</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40801</v>
+        <v>37696</v>
       </c>
       <c r="B6" t="n">
-        <v>349.32</v>
+        <v>1160.51</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -617,24 +577,24 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-19.13888888888889</v>
+        <v>-11.0352176379498</v>
       </c>
       <c r="G6" t="n">
-        <v>-22.24373956594324</v>
+        <v>-7.710720732900189</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.62266031675712</v>
+        <v>-20.24479585455195</v>
       </c>
       <c r="I6" t="n">
-        <v>-16.1839863713799</v>
+        <v>-30.8862327514844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42173</v>
+        <v>39159</v>
       </c>
       <c r="B7" t="n">
-        <v>941.1799999999999</v>
+        <v>3006</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -646,24 +606,24 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>3.451383851040912</v>
+        <v>3.251423743018678</v>
       </c>
       <c r="G7" t="n">
-        <v>26.42282429110641</v>
+        <v>17.47786054291498</v>
       </c>
       <c r="H7" t="n">
-        <v>22.21053588355213</v>
+        <v>30.34711532207357</v>
       </c>
       <c r="I7" t="n">
-        <v>26.38547583558257</v>
+        <v>10.58707536549655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43621</v>
+        <v>40650</v>
       </c>
       <c r="B8" t="n">
-        <v>973.3099999999999</v>
+        <v>2594.15</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -675,24 +635,24 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-2.144494490468918</v>
+        <v>-3.020617207798271</v>
       </c>
       <c r="G8" t="n">
-        <v>4.777539750034987</v>
+        <v>5.888859862523876</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.94041730054304</v>
+        <v>21.45010721074168</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.571522475602982</v>
+        <v>15.57602003083039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44866</v>
+        <v>42113</v>
       </c>
       <c r="B9" t="n">
-        <v>1647.03</v>
+        <v>3551.66</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -704,16 +664,74 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-8.759382876769251</v>
+        <v>14.22185345271174</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.804304626493885</v>
+        <v>27.91768112601385</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.485479659682299</v>
+        <v>20.79407943515197</v>
       </c>
       <c r="I9" t="n">
-        <v>-11.06605398575571</v>
+        <v>27.34619825169058</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43569</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4187.86</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rød</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>8.108680219425612</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.083997239821825</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.08469703512661297</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.132103996339831</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4777.66</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Blå</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-2.834434607883207</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.019756388081346</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.351756134563468</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.791336459912319</v>
       </c>
     </row>
   </sheetData>
